--- a/docs/FM_SOC.xlsx
+++ b/docs/FM_SOC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JefferyLi\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MMC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0473C1AE-3DE0-48A5-A939-7D819266CC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B91F6A5-E7B4-46CD-9ACC-4EEF3A13363C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4130" yWindow="3270" windowWidth="28800" windowHeight="15460" activeTab="10" xr2:uid="{89F747F6-356F-A648-8844-FDBC04AEB422}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{89F747F6-356F-A648-8844-FDBC04AEB422}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg0" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="169">
   <si>
     <t>THRESH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1490,9 +1490,12 @@
 0100: read done</t>
   </si>
   <si>
-    <t>00000001: RSSI Scan start
+    <t xml:space="preserve">00000001: RSSI Scan start
 00000010: RSSI Scan stop
-xxxxxxx00:  RSSI parameters</t>
+00000100: RSSI calculate </t>
+  </si>
+  <si>
+    <t>read  RSSI data</t>
   </si>
 </sst>
 </file>
@@ -2072,6 +2075,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2082,9 +2088,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2123,25 +2126,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2154,6 +2148,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2657,7 +2660,7 @@
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="10">
@@ -2734,25 +2737,25 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="50" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="53"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2777,64 +2780,64 @@
       <c r="U3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
+      <c r="V3" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="B4" s="53">
-        <v>0</v>
-      </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53">
+      <c r="B4" s="49">
+        <v>0</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49">
         <v>4</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49">
         <v>3</v>
       </c>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53">
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49">
         <v>4</v>
       </c>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53">
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49">
         <v>2</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53">
-        <v>0</v>
-      </c>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49">
+        <v>0</v>
+      </c>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="R4:U4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368934CD-A864-654D-A101-19BD9206A030}">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:X4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -3085,8 +3088,19 @@
         <v>86</v>
       </c>
     </row>
+    <row r="11" spans="1:32">
+      <c r="B11" s="84">
+        <v>6000050</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="Y4:AB4"/>
     <mergeCell ref="Q4:X4"/>
@@ -3107,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724C7B7F-C061-4635-B967-EC4313A61E98}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3545,12 +3559,12 @@
       <c r="Y4" s="58"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="B5" s="53">
+      <c r="B5" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="59">
         <v>8</v>
       </c>
@@ -3569,18 +3583,18 @@
       <c r="O5" s="59"/>
       <c r="P5" s="59"/>
       <c r="Q5" s="59"/>
-      <c r="R5" s="53">
+      <c r="R5" s="49">
         <v>8</v>
       </c>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53">
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49">
         <v>5</v>
       </c>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3823,12 +3837,12 @@
       <c r="S4" s="57"/>
       <c r="T4" s="57"/>
       <c r="U4" s="58"/>
-      <c r="V4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
+      <c r="V4" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
     </row>
     <row r="5" spans="1:28">
       <c r="B5" s="65">
@@ -4960,34 +4974,17 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="A24:Y24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="J27:U27"/>
-    <mergeCell ref="V27:Y27"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="A16:Y16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:U19"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="A32:Y32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="J35:U35"/>
+    <mergeCell ref="V35:Y35"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="A10:A11"/>
@@ -5004,17 +5001,34 @@
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A32:Y32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="J35:U35"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="R36:U36"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="A16:Y16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:U19"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="A24:Y24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="J27:U27"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5224,50 +5238,50 @@
       <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="75" t="s">
+      <c r="O4" s="73"/>
+      <c r="P4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75" t="s">
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71">
-        <v>0</v>
-      </c>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="72" t="s">
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66">
+        <v>0</v>
+      </c>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="71">
-        <v>1</v>
-      </c>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="66">
+        <v>1</v>
+      </c>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="61" t="s">
@@ -5456,10 +5470,10 @@
       <c r="M11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="73" t="s">
+      <c r="N11" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="74"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="56" t="s">
         <v>30</v>
       </c>
@@ -5489,30 +5503,30 @@
       <c r="G12" s="59"/>
       <c r="H12" s="59"/>
       <c r="I12" s="59"/>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71">
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66">
         <v>3</v>
       </c>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="72" t="s">
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="71">
-        <v>1</v>
-      </c>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="66">
+        <v>1</v>
+      </c>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="61" t="s">
@@ -5703,10 +5717,10 @@
       <c r="M19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="73" t="s">
+      <c r="N19" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="74"/>
+      <c r="O19" s="71"/>
       <c r="P19" s="56" t="s">
         <v>30</v>
       </c>
@@ -5736,30 +5750,30 @@
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
-      <c r="J20" s="71">
+      <c r="J20" s="66">
         <v>4</v>
       </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71">
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66">
         <v>2</v>
       </c>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="72">
-        <v>0</v>
-      </c>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="71">
-        <v>1</v>
-      </c>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="67">
+        <v>0</v>
+      </c>
+      <c r="S20" s="67"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="66">
+        <v>1</v>
+      </c>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" s="61" t="s">
@@ -5948,10 +5962,10 @@
       <c r="M25" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="73" t="s">
+      <c r="N25" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="74"/>
+      <c r="O25" s="71"/>
       <c r="P25" s="56" t="s">
         <v>30</v>
       </c>
@@ -5981,30 +5995,30 @@
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
       <c r="I26" s="59"/>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71">
-        <v>1</v>
-      </c>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72">
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66">
+        <v>1</v>
+      </c>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="67">
         <v>4</v>
       </c>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="71">
-        <v>1</v>
-      </c>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="66">
+        <v>1</v>
+      </c>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" s="61" t="s">
@@ -6193,10 +6207,10 @@
       <c r="M31" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N31" s="73" t="s">
+      <c r="N31" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="74"/>
+      <c r="O31" s="71"/>
       <c r="P31" s="56" t="s">
         <v>30</v>
       </c>
@@ -6226,30 +6240,30 @@
       <c r="G32" s="59"/>
       <c r="H32" s="59"/>
       <c r="I32" s="59"/>
-      <c r="J32" s="71" t="s">
+      <c r="J32" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71">
-        <v>1</v>
-      </c>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="72">
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66">
+        <v>1</v>
+      </c>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="67">
         <v>6</v>
       </c>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="71">
-        <v>1</v>
-      </c>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="66">
+        <v>1</v>
+      </c>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" s="61" t="s">
@@ -6438,10 +6452,10 @@
       <c r="M37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="66" t="s">
+      <c r="N37" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="67"/>
+      <c r="O37" s="69"/>
       <c r="P37" s="63" t="s">
         <v>30</v>
       </c>
@@ -6471,30 +6485,30 @@
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71">
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66">
         <v>2</v>
       </c>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="72">
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="67">
         <v>8</v>
       </c>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="71">
-        <v>1</v>
-      </c>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="66">
+        <v>1</v>
+      </c>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
     </row>
     <row r="41" spans="1:25">
       <c r="A41" s="61" t="s">
@@ -6685,10 +6699,10 @@
       <c r="M44" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="73" t="s">
+      <c r="N44" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="74"/>
+      <c r="O44" s="71"/>
       <c r="P44" s="56" t="s">
         <v>30</v>
       </c>
@@ -6718,30 +6732,30 @@
       <c r="G45" s="59"/>
       <c r="H45" s="59"/>
       <c r="I45" s="59"/>
-      <c r="J45" s="71">
+      <c r="J45" s="66">
         <v>4</v>
       </c>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71">
-        <v>1</v>
-      </c>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="72">
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66">
+        <v>1</v>
+      </c>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="67">
         <v>4</v>
       </c>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="71">
-        <v>1</v>
-      </c>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="67"/>
+      <c r="V45" s="66">
+        <v>1</v>
+      </c>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" s="61" t="s">
@@ -6930,10 +6944,10 @@
       <c r="M51" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="66" t="s">
+      <c r="N51" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O51" s="67"/>
+      <c r="O51" s="69"/>
       <c r="P51" s="63" t="s">
         <v>30</v>
       </c>
@@ -6963,30 +6977,30 @@
       <c r="G52" s="59"/>
       <c r="H52" s="59"/>
       <c r="I52" s="59"/>
-      <c r="J52" s="71" t="s">
+      <c r="J52" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71">
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66">
         <v>2</v>
       </c>
-      <c r="O52" s="71"/>
-      <c r="P52" s="71"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="72" t="s">
+      <c r="O52" s="66"/>
+      <c r="P52" s="66"/>
+      <c r="Q52" s="66"/>
+      <c r="R52" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="S52" s="72"/>
-      <c r="T52" s="72"/>
-      <c r="U52" s="72"/>
-      <c r="V52" s="71">
-        <v>1</v>
-      </c>
-      <c r="W52" s="71"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
+      <c r="S52" s="67"/>
+      <c r="T52" s="67"/>
+      <c r="U52" s="67"/>
+      <c r="V52" s="66">
+        <v>1</v>
+      </c>
+      <c r="W52" s="66"/>
+      <c r="X52" s="66"/>
+      <c r="Y52" s="66"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="61" t="s">
@@ -7175,10 +7189,10 @@
       <c r="M58" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N58" s="66" t="s">
+      <c r="N58" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O58" s="67"/>
+      <c r="O58" s="69"/>
       <c r="P58" s="63" t="s">
         <v>30</v>
       </c>
@@ -7208,30 +7222,30 @@
       <c r="G59" s="59"/>
       <c r="H59" s="59"/>
       <c r="I59" s="59"/>
-      <c r="J59" s="71" t="s">
+      <c r="J59" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71">
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66">
         <v>2</v>
       </c>
-      <c r="O59" s="71"/>
-      <c r="P59" s="71"/>
-      <c r="Q59" s="71"/>
-      <c r="R59" s="72" t="s">
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="S59" s="72"/>
-      <c r="T59" s="72"/>
-      <c r="U59" s="72"/>
-      <c r="V59" s="71">
-        <v>1</v>
-      </c>
-      <c r="W59" s="71"/>
-      <c r="X59" s="71"/>
-      <c r="Y59" s="71"/>
+      <c r="S59" s="67"/>
+      <c r="T59" s="67"/>
+      <c r="U59" s="67"/>
+      <c r="V59" s="66">
+        <v>1</v>
+      </c>
+      <c r="W59" s="66"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="66"/>
     </row>
     <row r="61" spans="1:25">
       <c r="A61" s="61" t="s">
@@ -7420,10 +7434,10 @@
       <c r="M64" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N64" s="66" t="s">
+      <c r="N64" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O64" s="67"/>
+      <c r="O64" s="69"/>
       <c r="P64" s="63" t="s">
         <v>30</v>
       </c>
@@ -7453,30 +7467,30 @@
       <c r="G65" s="59"/>
       <c r="H65" s="59"/>
       <c r="I65" s="59"/>
-      <c r="J65" s="71" t="s">
+      <c r="J65" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="K65" s="71"/>
-      <c r="L65" s="71"/>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71">
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66">
         <v>3</v>
       </c>
-      <c r="O65" s="71"/>
-      <c r="P65" s="71"/>
-      <c r="Q65" s="71"/>
-      <c r="R65" s="72" t="s">
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="S65" s="72"/>
-      <c r="T65" s="72"/>
-      <c r="U65" s="72"/>
-      <c r="V65" s="71">
-        <v>1</v>
-      </c>
-      <c r="W65" s="71"/>
-      <c r="X65" s="71"/>
-      <c r="Y65" s="71"/>
+      <c r="S65" s="67"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="66">
+        <v>1</v>
+      </c>
+      <c r="W65" s="66"/>
+      <c r="X65" s="66"/>
+      <c r="Y65" s="66"/>
     </row>
     <row r="68" spans="1:25">
       <c r="A68" s="61" t="s">
@@ -7667,10 +7681,10 @@
       <c r="M71" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N71" s="66" t="s">
+      <c r="N71" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O71" s="67"/>
+      <c r="O71" s="69"/>
       <c r="P71" s="63" t="s">
         <v>30</v>
       </c>
@@ -7700,30 +7714,30 @@
       <c r="G72" s="59"/>
       <c r="H72" s="59"/>
       <c r="I72" s="59"/>
-      <c r="J72" s="71">
+      <c r="J72" s="66">
         <v>4</v>
       </c>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71">
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66">
         <v>3</v>
       </c>
-      <c r="O72" s="71"/>
-      <c r="P72" s="71"/>
-      <c r="Q72" s="71"/>
-      <c r="R72" s="72" t="s">
+      <c r="O72" s="66"/>
+      <c r="P72" s="66"/>
+      <c r="Q72" s="66"/>
+      <c r="R72" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="S72" s="72"/>
-      <c r="T72" s="72"/>
-      <c r="U72" s="72"/>
-      <c r="V72" s="71">
-        <v>1</v>
-      </c>
-      <c r="W72" s="71"/>
-      <c r="X72" s="71"/>
-      <c r="Y72" s="71"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="66">
+        <v>1</v>
+      </c>
+      <c r="W72" s="66"/>
+      <c r="X72" s="66"/>
+      <c r="Y72" s="66"/>
     </row>
     <row r="81" spans="1:25">
       <c r="Q81">
@@ -7929,18 +7943,18 @@
       <c r="M85" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N85" s="66" t="s">
+      <c r="N85" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O85" s="67"/>
-      <c r="P85" s="68" t="s">
+      <c r="O85" s="69"/>
+      <c r="P85" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="Q85" s="69"/>
-      <c r="R85" s="69"/>
-      <c r="S85" s="69"/>
-      <c r="T85" s="69"/>
-      <c r="U85" s="70"/>
+      <c r="Q85" s="75"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="75"/>
+      <c r="T85" s="75"/>
+      <c r="U85" s="76"/>
       <c r="V85" s="63" t="s">
         <v>29</v>
       </c>
@@ -7962,30 +7976,30 @@
       <c r="G86" s="59"/>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
-      <c r="J86" s="71" t="s">
+      <c r="J86" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="K86" s="71"/>
-      <c r="L86" s="71"/>
-      <c r="M86" s="71"/>
-      <c r="N86" s="71">
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66">
         <v>2</v>
       </c>
-      <c r="O86" s="71"/>
-      <c r="P86" s="71"/>
-      <c r="Q86" s="71"/>
-      <c r="R86" s="72">
+      <c r="O86" s="66"/>
+      <c r="P86" s="66"/>
+      <c r="Q86" s="66"/>
+      <c r="R86" s="67">
         <v>8</v>
       </c>
-      <c r="S86" s="72"/>
-      <c r="T86" s="72"/>
-      <c r="U86" s="72"/>
-      <c r="V86" s="71">
-        <v>1</v>
-      </c>
-      <c r="W86" s="71"/>
-      <c r="X86" s="71"/>
-      <c r="Y86" s="71"/>
+      <c r="S86" s="67"/>
+      <c r="T86" s="67"/>
+      <c r="U86" s="67"/>
+      <c r="V86" s="66">
+        <v>1</v>
+      </c>
+      <c r="W86" s="66"/>
+      <c r="X86" s="66"/>
+      <c r="Y86" s="66"/>
     </row>
     <row r="88" spans="1:25">
       <c r="C88" t="s">
@@ -8033,54 +8047,76 @@
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="A68:Y68"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:U71"/>
-    <mergeCell ref="V71:Y71"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="N65:Q65"/>
-    <mergeCell ref="R65:U65"/>
-    <mergeCell ref="V65:Y65"/>
-    <mergeCell ref="A61:Y61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:U64"/>
-    <mergeCell ref="V64:Y64"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:Q59"/>
-    <mergeCell ref="R59:U59"/>
-    <mergeCell ref="V59:Y59"/>
-    <mergeCell ref="A55:Y55"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:U58"/>
-    <mergeCell ref="V58:Y58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="N52:Q52"/>
-    <mergeCell ref="R52:U52"/>
-    <mergeCell ref="V52:Y52"/>
-    <mergeCell ref="A48:Y48"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:U51"/>
-    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="A82:Y82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="I85:K85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:U85"/>
+    <mergeCell ref="V85:Y85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="V86:Y86"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:Y8"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="V5:Y5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:U11"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:Y20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="A16:Y16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:U19"/>
+    <mergeCell ref="V19:Y19"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="A22:Y22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="A28:Y28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="V31:Y31"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="J45:M45"/>
@@ -8105,76 +8141,54 @@
     <mergeCell ref="J38:M38"/>
     <mergeCell ref="N38:Q38"/>
     <mergeCell ref="R38:U38"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="A28:Y28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="A22:Y22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:Y20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A16:Y16"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:U19"/>
-    <mergeCell ref="V19:Y19"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:Y8"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:U11"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="A82:Y82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="I85:K85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:U85"/>
-    <mergeCell ref="V85:Y85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="N86:Q86"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="V86:Y86"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="N52:Q52"/>
+    <mergeCell ref="R52:U52"/>
+    <mergeCell ref="V52:Y52"/>
+    <mergeCell ref="A48:Y48"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:Q59"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="V59:Y59"/>
+    <mergeCell ref="A55:Y55"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:U58"/>
+    <mergeCell ref="V58:Y58"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="N65:Q65"/>
+    <mergeCell ref="R65:U65"/>
+    <mergeCell ref="V65:Y65"/>
+    <mergeCell ref="A61:Y61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:U64"/>
+    <mergeCell ref="V64:Y64"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="A68:Y68"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:U71"/>
+    <mergeCell ref="V71:Y71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8414,36 +8428,36 @@
       <c r="C7" s="77"/>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
-      <c r="F7" s="71">
-        <v>0</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71">
-        <v>0</v>
-      </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
-        <v>0</v>
-      </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="72">
-        <v>1</v>
-      </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="71">
+      <c r="F7" s="66">
+        <v>0</v>
+      </c>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
+        <v>0</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
+        <v>0</v>
+      </c>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="67">
+        <v>1</v>
+      </c>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="66">
         <v>6</v>
       </c>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8669,38 +8683,38 @@
       <c r="S6" s="80"/>
       <c r="T6" s="80"/>
       <c r="U6" s="81"/>
-      <c r="V6" s="75" t="s">
+      <c r="V6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="J7" s="71">
-        <v>0</v>
-      </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71">
-        <v>0</v>
-      </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="72">
-        <v>0</v>
-      </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="71">
+      <c r="J7" s="66">
+        <v>0</v>
+      </c>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66">
+        <v>0</v>
+      </c>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="67">
+        <v>0</v>
+      </c>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="66">
         <v>4</v>
       </c>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8924,50 +8938,50 @@
       <c r="S6" s="57"/>
       <c r="T6" s="57"/>
       <c r="U6" s="58"/>
-      <c r="V6" s="75" t="s">
+      <c r="V6" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="B7" s="53">
-        <v>0</v>
-      </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
-        <v>0</v>
-      </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="71" t="s">
+      <c r="B7" s="49">
+        <v>0</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49">
+        <v>0</v>
+      </c>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71" t="s">
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="72">
-        <v>0</v>
-      </c>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="71">
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="67">
+        <v>0</v>
+      </c>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="66">
         <v>3</v>
       </c>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="82" t="s">
@@ -9160,50 +9174,50 @@
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
       <c r="U13" s="58"/>
-      <c r="V13" s="75" t="s">
+      <c r="V13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
     </row>
     <row r="14" spans="1:25">
-      <c r="B14" s="53">
-        <v>0</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53">
-        <v>0</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="71">
-        <v>0</v>
-      </c>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71">
-        <v>0</v>
-      </c>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="72">
-        <v>0</v>
-      </c>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="71">
+      <c r="B14" s="49">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49">
+        <v>0</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="66">
+        <v>0</v>
+      </c>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66">
+        <v>0</v>
+      </c>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="67">
+        <v>0</v>
+      </c>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="66">
         <v>3</v>
       </c>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
     </row>
     <row r="18" spans="30:30">
       <c r="AD18">
@@ -9219,6 +9233,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A10:Y10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:Y14"/>
     <mergeCell ref="J6:U6"/>
     <mergeCell ref="A3:Y3"/>
     <mergeCell ref="A5:A6"/>
@@ -9229,16 +9253,6 @@
     <mergeCell ref="V7:Y7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A10:Y10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J13:U13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
